--- a/data/AmazonPrime_data.xlsx
+++ b/data/AmazonPrime_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Data Analysis\Wills Films\Streaming Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Data Analysis\Wills Films\Streaming Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6328FB9E-C121-4827-A43A-BA6495322971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D21D2B-E4B0-49D3-9978-376A5A5028C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{74BE0BF5-F415-47AD-8BE6-D21D6C24A3C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{74BE0BF5-F415-47AD-8BE6-D21D6C24A3C0}"/>
   </bookViews>
   <sheets>
     <sheet name="revenue" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="data source" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -72,10 +71,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -97,16 +103,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -576,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEFD308-C485-447C-A788-8D85A9DED0F5}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -731,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A763AC3-8867-45DD-B42E-2714F13C781A}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -746,7 +755,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -761,6 +770,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{7CF211ED-8B38-45E4-B75F-653A7EB86F1F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>